--- a/New folder/triaging_template_Rule_286- Atypical travel_enhanced.xlsx
+++ b/New folder/triaging_template_Rule_286- Atypical travel_enhanced.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anekant.jain\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agentic AI\Projects\soc\triaging_template\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F9318-60CB-4EBB-BBFF-F78AF43B88FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7144F6-437B-4F3E-B437-CC4AB95B54A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Step</t>
   </si>
@@ -252,6 +252,89 @@
 on IdentityInfo.UserID = DeviceID
 extend Timestamp = TimeGenerated
 This query will filter the user activity logs for users with a specific email address, identify any logins they performed before their logout date, and extend the timestamp to include when they logged in.</t>
+  </si>
+  <si>
+    <t>Location              IPAddress         LocationCount  UserEmail                   LastSeen
+Moscow, Russia        203.0.113.45     1              sarah.mitchell@abc.com      2025-10-09 09:54:20
+New York, NY, US      192.168.1.100    1              sarah.mitchell@abc.com      2025-10-08 11:54:20
+Beijing, China        198.51.100.75    1              david.chen@abc.com          2025-10-09 07:54:20
+London, UK            172.16.2.50      2              emma.johnson@abc.com        2025-10-09 05:54:20
+Unknown Location      103.22.200.124   1              mike.rodriguez@abc.com      2025-10-09 10:54:20
+Dubai, UAE            185.199.108.153  1              lisa.ahmed@abc.com          2025-10-09 03:54:20</t>
+  </si>
+  <si>
+    <t>UserPrincipalName      IPAddress        Location          TravelDistance  TravelTime  EstimatedSpeed  RiskLevel  PreviousLocation
+sarah.mitchell@abc.com 203.0.113.45     Moscow, Russia    5,500 miles     2 hours     2,750 mph      Critical   New York, NY, US
+david.chen@abc.com     198.51.100.75    Beijing, China    7,200 miles     4 hours     1,800 mph      High       Los Angeles, CA, US
+mike.rodriguez@abc.com 103.22.200.124   Unknown Location  Unknown         1 hour      Unknown        High       Chicago, IL, US
+lisa.ahmed@abc.com     185.199.108.153  Dubai, UAE        8,100 miles     8 hours     1,012 mph      Medium     London, UK</t>
+  </si>
+  <si>
+    <t>InvestigationID  UserPrincipalName      TimeGenerated        ActionName                Method       DeviceIP        Description
+TRAVEL-2025-001  sarah.mitchell@abc.com 2025-10-09 09:54:20  Unusual location sign-in  web browser  203.0.113.45   User signed in from Moscow after being in New York 2 hours ago
+TRAVEL-2025-002  david.chen@abc.com     2025-10-09 07:54:20  Impossible travel         mobile app   198.51.100.75  User traveled from LA to Beijing in 4 hours - physically impossible
+TRAVEL-2025-003  mike.rodriguez@abc.com 2025-10-09 10:54:20  Unknown location access   api access  103.22.200.124 User accessed from unknown location via API
+TRAVEL-2025-004  lisa.ahmed@abc.com     2025-10-09 03:54:20  Cross-continent travel    web browser  185.199.108.153 User signed in from Dubai after London session</t>
+  </si>
+  <si>
+    <t>UserPrincipalName      Location          IPAddress        LocationCount  Latitude  Longitude  ISP                ThreatLevel
+sarah.mitchell@abc.com Moscow, Russia    203.0.113.45     1             55.7558   37.6176    Moscow Telecom     High
+david.chen@abc.com     Beijing, China    198.51.100.75    1             39.9042   116.4074   China Unicom       Medium
+mike.rodriguez@abc.com Unknown Location  103.22.200.124   1             NaN       NaN        Unknown Provider   Critical
+lisa.ahmed@abc.com     Dubai, UAE        185.199.108.153  1             25.2048   55.2708    Emirates Telecom   Low</t>
+  </si>
+  <si>
+    <t>AccountUPN             AccountDisplayName  JobTitle                 Department   Manager              City          Country        IsVIP
+sarah.mitchell@abc.com Sarah Mitchell      Chief Financial Officer  Finance      ceo@abc.com          New York      United States  Yes
+david.chen@abc.com     David Chen          Senior Software Engineer Engineering  eng.manager@abc.com  San Francisco United States  No
+mike.rodriguez@abc.com Mike Rodriguez      IT Security Manager      IT Security  ciso@abc.com         Chicago       United States  Yes
+lisa.ahmed@abc.com     Lisa Ahmed          Marketing Director       Marketing    vp.marketing@abc.com Boston        United States  Yes</t>
+  </si>
+  <si>
+    <t>UserPrincipalName      SignInCount  UniqueIPs  UniqueLocations  FailedSignIns  Locations                                            IPs                              RiskScore
+sarah.mitchell@abc.com 45          5          4                3              New York, NY; Moscow, Russia; London, UK; Paris     192.168.1.100; 203.0.113.45     28
+david.chen@abc.com     32          3          2                1              San Francisco, CA; Beijing, China                   10.0.1.25; 198.51.100.75        12
+mike.rodriguez@abc.com 67          4          3                2              Chicago, IL; Unknown Location; Toronto, Canada      192.168.2.100; 103.22.200.124   19
+lisa.ahmed@abc.com     28          6          5                8              Boston, MA; Dubai, UAE; London, UK; Sydney, Tokyo   172.16.1.200; 185.199.108.153   41</t>
+  </si>
+  <si>
+    <t>IPAddress        SignInAttempts  UniqueUsers  FailedAttempts  Users                                   Locations         ThreatType               Description                   ConfidenceScore  Reputation
+203.0.113.45     15             3            5               sarah.mitchell@abc.com; john.doe@abc.com Moscow, Russia    Suspicious Infrastructure Known proxy service provider  85              Malicious
+198.51.100.75    8              2            1               david.chen@abc.com; alice.smith@abc.com Beijing, China     None                     No threat indicators found   0               Clean
+103.22.200.124   25             1            18              mike.rodriguez@abc.com                  Unknown Location   Tor Exit Node            Anonymous proxy/VPN service  95              Suspicious
+185.199.108.153  12             4            2               lisa.ahmed@abc.com; emma.wilson@abc.com Dubai, UAE        Clean                    Legitimate ISP in UAE         10              Clean</t>
+  </si>
+  <si>
+    <t>UserPrincipalName      DeviceName         DeviceOS           DeviceCompliant  PreviousDeviceMatch  BrowserDetails  MFAStatus   UserBehaviorMatch  RiskIndicators
+sarah.mitchell@abc.com Sarah-MacBook-Pro  macOS 14.2         Yes             Yes                  Safari 17.2     Bypassed    No                 New device, unusual location
+david.chen@abc.com     Unknown Device     Unknown            Unknown         No                   Chrome Mobile   Failed      No                 Unrecognized device and location
+mike.rodriguez@abc.com SECURITY-LAPTOP-01 Windows 11 Pro     Yes             Yes                  Edge 118.0      Completed   Partial            Known device, suspicious IP
+lisa.ahmed@abc.com     Lisa-Surface-Pro   Windows 11 Enterprise Yes          No                   Chrome 119.0    Completed   No                 New location, different time zone</t>
+  </si>
+  <si>
+    <t>UserPrincipalName      SimultaneousLogins  Location1             Location2        TimeDifference  Distance     PhysicallyPossible  IP1            IP2            ConcurrentSessions  AlertTriggered
+sarah.mitchell@abc.com 2                  New York, NY, US      Moscow, Russia   2 hours         5,500 miles  No                 192.168.1.100  203.0.113.45   Active             Yes
+david.chen@abc.com     1                  San Francisco, CA, US Beijing, China   4 hours         7,200 miles  No                 10.0.1.25      198.51.100.75  Terminated         Yes
+mike.rodriguez@abc.com 1                  Chicago, IL, US       Unknown Location 1 hour          Unknown      Unknown            192.168.2.100  103.22.200.124 Active             Yes</t>
+  </si>
+  <si>
+    <t>UserPrincipalName      ContactMethod          UserResponse                      TravelConfirmed   VPNUsage  DeviceRecognized  IPRecognized        FollowUpAction
+sarah.mitchell@abc.com Phone call             No response after 3 attempts      No Response       Unknown   Unknown           Unknown            Escalate to L3
+david.chen@abc.com     Email + SMS            Confirmed legitimate travel       Yes              No        Yes               No                 Close as False Positive
+mike.rodriguez@abc.com In-person verification Confirmed - using VPN for work    VPN Usage        Yes       Yes               Yes (Corporate VPN) Document VPN usage
+lisa.ahmed@abc.com     Phone call             Denied travel, reported compromise No - Compromised  No        No                No                 Immediate account lockdown</t>
+  </si>
+  <si>
+    <t>UserPrincipalName      TruePositiveConfirmed           ITTeamNotified       AccountStatus  PasswordReset  SessionsRevoked  ComplianceNotified  IncidentTicket  EscalationLevel        EstimatedDowntime
+sarah.mitchell@abc.com Yes (No Response)               2025-10-09 11:24:20  Disabled       Initiated      5               Yes                INC-2025-0089   L3 Security           2-4 hours
+lisa.ahmed@abc.com     Yes (User Confirmed Compromise) 2025-10-09 11:39:20  Disabled       Completed      3               Yes                INC-2025-0090   L2 Incident Response  1-2 hours</t>
+  </si>
+  <si>
+    <t>InvestigationID  UserAffected           FinalClassification              SecurityPolicyUpdate              UserTrainingRequired  TrainingTopic               LessonsLearned                      ProcessImprovement
+TRAVEL-2025-001  sarah.mitchell@abc.com True Positive - Account Compromise Enhanced geo-blocking for executives Yes                  Travel security protocols   Executive travel notifications needed Executive travel notification system
+TRAVEL-2025-002  david.chen@abc.com     False Positive - Legitimate Travel No update required                No                   N/A                        Legitimate travel can trigger alerts Improved geo-location accuracy
+TRAVEL-2025-003  mike.rodriguez@abc.com False Positive - VPN Usage        VPN exception documentation        No                   N/A                        VPN usage should be pre-registered   VPN IP range whitelisting
+TRAVEL-2025-004  lisa.ahmed@abc.com     True Positive - Credential Theft  Mandatory MFA for all accounts     Yes                  Phishing awareness and MFA  Faster user contact methods required Automated user contact escalation</t>
   </si>
 </sst>
 </file>
@@ -675,8 +758,8 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +807,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -738,7 +821,9 @@
         <v>10</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
@@ -755,10 +840,12 @@
         <v>13</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="396" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -772,10 +859,12 @@
         <v>16</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="360" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -789,10 +878,12 @@
         <v>10</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -806,10 +897,12 @@
         <v>21</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -823,10 +916,12 @@
         <v>24</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="204" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -840,10 +935,12 @@
         <v>27</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -857,10 +954,12 @@
         <v>24</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -874,10 +973,12 @@
         <v>24</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -891,10 +992,12 @@
         <v>10</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="276" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -908,10 +1011,12 @@
         <v>36</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -925,7 +1030,9 @@
         <v>39</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
   </sheetData>

--- a/New folder/triaging_template_Rule_286- Atypical travel_enhanced.xlsx
+++ b/New folder/triaging_template_Rule_286- Atypical travel_enhanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agentic AI\Projects\soc\triaging_template\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7144F6-437B-4F3E-B437-CC4AB95B54A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D9724-CE4A-4EC6-91EE-D69E14B66C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,9 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,5 +1037,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New folder/triaging_template_Rule_286- Atypical travel_enhanced.xlsx
+++ b/New folder/triaging_template_Rule_286- Atypical travel_enhanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agentic AI\Projects\soc\triaging_template\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D9724-CE4A-4EC6-91EE-D69E14B66C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F42301-BC31-40AF-9A9A-5DA946842633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
